--- a/common/src/main/webapp/imports/export-陈艳林-22.xlsx
+++ b/common/src/main/webapp/imports/export-陈艳林-22.xlsx
@@ -894,10 +894,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -915,42 +915,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -972,15 +949,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -995,16 +1003,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1019,30 +1027,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1055,9 +1056,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1072,25 +1072,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,7 +1090,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,13 +1132,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,25 +1174,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,13 +1198,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,31 +1210,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,25 +1234,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,45 +1263,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1322,20 +1283,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1344,7 +1309,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1363,165 +1354,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1875,7 +1872,7 @@
   <dimension ref="A1:AE22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A11" sqref="A$1:A$1048576"/>
+      <selection activeCell="D14" sqref="A1:AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1924,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1934,13 +1931,13 @@
         <f t="shared" ref="H1:H22" si="0">G1</f>
         <v>沈阳市沈北新区畅阳路15-1号</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -1988,7 +1985,7 @@
       <c r="AD1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2008,7 +2005,7 @@
       <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -2018,13 +2015,13 @@
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区乐业街98号</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -2072,7 +2069,7 @@
       <c r="AD2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2090,7 +2087,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -2100,13 +2097,13 @@
         <f t="shared" si="0"/>
         <v>辽宁省沈阳市大东区辽沈二街78-2号（2-1-3）</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -2152,7 +2149,7 @@
       <c r="AD3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2170,7 +2167,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -2180,13 +2177,13 @@
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区常州路40号甲</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -2232,7 +2229,7 @@
       <c r="AD4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AE4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2250,7 +2247,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -2260,13 +2257,13 @@
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区蒲昌路1-26号</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>63</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -2314,7 +2311,7 @@
       <c r="AD5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AE5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2334,7 +2331,7 @@
       <c r="E6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -2344,13 +2341,13 @@
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区清水台镇清水二井</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>76</v>
       </c>
       <c r="L6" s="3" t="s">
@@ -2396,7 +2393,7 @@
       <c r="AD6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="5" t="s">
+      <c r="AE6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2414,7 +2411,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -2424,13 +2421,13 @@
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区尹家乡沟子沿村</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -2478,7 +2475,7 @@
       <c r="AD7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE7" s="5" t="s">
+      <c r="AE7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2496,7 +2493,7 @@
         <v>91</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -2506,13 +2503,13 @@
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区蒲河路83号</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>96</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -2560,7 +2557,7 @@
       <c r="AD8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE8" s="5" t="s">
+      <c r="AE8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2580,7 +2577,7 @@
       <c r="E9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>105</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -2590,13 +2587,13 @@
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山经济开发区辉山大街131号</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>109</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -2642,7 +2639,7 @@
       <c r="AD9" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AE9" s="5" t="s">
+      <c r="AE9" s="4" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2662,7 +2659,7 @@
       <c r="E10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>119</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -2672,13 +2669,13 @@
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山大街176号</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>123</v>
       </c>
       <c r="L10" s="3" t="s">
@@ -2734,7 +2731,7 @@
       <c r="AD10" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="AE10" s="5" t="s">
+      <c r="AE10" s="4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2752,7 +2749,7 @@
       <c r="E11" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>138</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -2762,13 +2759,13 @@
         <f t="shared" si="0"/>
         <v>沈阳辉山农业高新技术开发区辉山大街158号</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -2820,7 +2817,7 @@
       <c r="AD11" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="AE11" s="5" t="s">
+      <c r="AE11" s="4" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2840,7 +2837,7 @@
       <c r="E12" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>155</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -2850,13 +2847,13 @@
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区人和街118-13号</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>159</v>
       </c>
       <c r="L12" s="3" t="s">
@@ -2902,7 +2899,7 @@
       <c r="AD12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE12" s="5" t="s">
+      <c r="AE12" s="4" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2918,7 +2915,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>167</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -2928,13 +2925,13 @@
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区畅阳路15号</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L13" s="3" t="s">
@@ -2943,7 +2940,7 @@
       <c r="M13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="4"/>
+      <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -2980,7 +2977,7 @@
       <c r="AD13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE13" s="5" t="s">
+      <c r="AE13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3000,7 +2997,7 @@
       <c r="E14" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>177</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -3010,13 +3007,13 @@
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区人和街86号</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>181</v>
       </c>
       <c r="L14" s="3" t="s">
@@ -3060,7 +3057,7 @@
       <c r="AD14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE14" s="5" t="s">
+      <c r="AE14" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3080,7 +3077,7 @@
       <c r="E15" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>189</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -3090,13 +3087,13 @@
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区辉山大街123-20号</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>193</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -3140,7 +3137,7 @@
       <c r="AD15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE15" s="5" t="s">
+      <c r="AE15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3160,7 +3157,7 @@
       <c r="E16" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>200</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -3170,13 +3167,13 @@
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区财落街道财落一社区</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>204</v>
       </c>
       <c r="L16" s="3" t="s">
@@ -3220,7 +3217,7 @@
       <c r="AD16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE16" s="5" t="s">
+      <c r="AE16" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3238,7 +3235,7 @@
         <v>211</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>212</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -3248,13 +3245,13 @@
         <f t="shared" si="0"/>
         <v>阳市沈北新区蒲河大道888号西六区37号（37号）</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>216</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -3296,7 +3293,7 @@
       <c r="AD17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE17" s="5" t="s">
+      <c r="AE17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3314,7 +3311,7 @@
         <v>221</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>222</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -3324,13 +3321,13 @@
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区马刚乡柳条河村</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>226</v>
       </c>
       <c r="L18" s="3" t="s">
@@ -3374,7 +3371,7 @@
       <c r="AD18" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="AE18" s="5" t="s">
+      <c r="AE18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3392,7 +3389,7 @@
         <v>233</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>234</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -3402,13 +3399,13 @@
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区福州路51号</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>238</v>
       </c>
       <c r="L19" s="3" t="s">
@@ -3454,7 +3451,7 @@
       <c r="AD19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE19" s="5" t="s">
+      <c r="AE19" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3474,7 +3471,7 @@
       <c r="E20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>245</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -3484,13 +3481,13 @@
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区夏花湖街15号</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>249</v>
       </c>
       <c r="L20" s="3" t="s">
@@ -3536,7 +3533,7 @@
       <c r="AD20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE20" s="5" t="s">
+      <c r="AE20" s="4" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3556,7 +3553,7 @@
       <c r="E21" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>259</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -3566,13 +3563,13 @@
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区新城子街贵州路</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="3" t="s">
@@ -3614,7 +3611,7 @@
       <c r="AD21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE21" s="5" t="s">
+      <c r="AE21" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3634,7 +3631,7 @@
       <c r="E22" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>271</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -3644,13 +3641,13 @@
         <f t="shared" si="0"/>
         <v>沈阳市沈北新区沈北路158-1号</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="3" t="s">
         <v>275</v>
       </c>
       <c r="L22" s="3" t="s">
@@ -3696,7 +3693,7 @@
       <c r="AD22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE22" s="5" t="s">
+      <c r="AE22" s="4" t="s">
         <v>279</v>
       </c>
     </row>
